--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/DKNCOR/GPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,121 +485,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 7, 9, 10, 12, 13, 14, 15, 16, 17, 21, 24, 25, 28, 34, 37, 38, 42, 44]</t>
+          <t>[2, 6, 10, 11, 12, 16, 23, 24, 26, 29, 31, 35, 36, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.45138888888888895</t>
+          <t>0.41000000000000003</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.036968886184233746</t>
+          <t>0.044297474113213955</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.03736971357247025</t>
+          <t>0.07623907617836038</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9793154071634149</t>
+          <t>0.8839348280247687</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.180739164352417</t>
+          <t>10.981560230255127</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 14, 15, 17, 18, 20, 23, 24, 34, 35, 37, 40, 44]</t>
+          <t>[1, 2, 6, 8, 9, 11, 12, 13, 14, 16, 17, 19, 22, 28, 29, 33, 34, 36, 39, 40]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5700396825396825</t>
+          <t>0.9823809523809524</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03268354867034669</t>
+          <t>0.046088079974700644</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.0489374789335836</t>
+          <t>0.059642382177715315</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.9645275959098232</t>
+          <t>0.928967576617007</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2297470569610596</t>
+          <t>12.754663467407227</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 9, 12, 13, 17, 26, 28, 34, 35, 37, 38, 40, 41, 44]</t>
+          <t>[0, 1, 2, 3, 6, 7, 8, 9, 14, 16, 17, 22, 23, 25, 28, 32, 34, 36, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5978174603174603</t>
+          <t>0.7998412698412699</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.040092610008437155</t>
+          <t>0.04200538559734076</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.04807159591442509</t>
+          <t>0.05965369538128264</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9657717639005543</t>
+          <t>0.9289406266377577</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2431159019470215</t>
+          <t>11.6693274974823</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -611,37 +611,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 6, 9, 10, 11, 15, 21, 23, 26, 27, 28, 32, 34, 35, 37, 43, 44]</t>
+          <t>[3, 8, 9, 10, 12, 13, 15, 16, 17, 19, 20, 21, 23, 28, 29, 32, 34, 36, 38, 39]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.6125</t>
+          <t>0.2649206349206349</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03879996569334569</t>
+          <t>0.04226572346308342</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.04492281859989645</t>
+          <t>0.11014140255736621</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9701089319579849</t>
+          <t>0.7577588753692476</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2435786724090576</t>
+          <t>11.700687408447266</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -653,37 +653,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 6, 7, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 21, 23, 24, 25, 27, 28, 32, 34, 35, 37, 41, 42, 43]</t>
+          <t>[1, 2, 3, 6, 10, 11, 16, 17, 18, 19, 23, 24, 25, 26, 32, 35, 36, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8726190476190476</t>
+          <t>0.7574603174603174</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.04210433937484369</t>
+          <t>0.04438932164199304</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.046034655343725556</t>
+          <t>0.060891256380050135</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9686110180561969</t>
+          <t>0.9259616828324537</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.181796073913574</t>
+          <t>12.359130144119263</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -695,37 +695,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 8, 9, 12, 13, 14, 15, 16, 17, 19, 21, 23, 25, 26, 27, 29, 31, 36, 37, 40, 44]</t>
+          <t>[1, 3, 6, 9, 10, 11, 13, 16, 17, 18, 19, 21, 23, 24, 26, 28, 29, 32, 36, 37, 39, 40, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.5867063492063492</t>
+          <t>1.002063492063492</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03753701988941621</t>
+          <t>0.04806710436910104</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.042301513972365784</t>
+          <t>0.09927948352385155</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.9734955216909906</t>
+          <t>0.8031816043532792</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.2087419033050537</t>
+          <t>12.627014398574829</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -737,79 +737,79 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[2, 6, 7, 8, 10, 13, 14, 16, 20, 23, 25, 26, 30, 32, 35, 37, 38, 39, 40]</t>
+          <t>[2, 3, 11, 14, 17, 18, 24, 29, 31, 36, 39, 40, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5033730158730159</t>
+          <t>0.1895238095238095</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03493057332068796</t>
+          <t>0.04347674754212889</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.05293222369505691</t>
+          <t>0.0726348287272623</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9585000363207696</t>
+          <t>0.8946495239071153</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.2037782669067383</t>
+          <t>12.626528024673462</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 8, 12, 18, 21, 23, 24, 26, 27, 29, 31, 32, 33, 35, 37, 38, 41, 42, 43]</t>
+          <t>[0, 1, 6, 11, 15, 17, 18, 19, 22, 29, 30, 32, 33, 34, 35, 36, 39, 44]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.625</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.043043430319861284</t>
+          <t>0.04452485673433597</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.03640563816330449</t>
+          <t>0.04735052545396425</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9803688955013912</t>
+          <t>0.9552290536378417</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.1665995121002197</t>
+          <t>12.218033790588379</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -821,37 +821,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 6, 7, 8, 9, 13, 14, 17, 18, 24, 25, 26, 30, 34, 35, 37, 39, 41, 42]</t>
+          <t>[1, 2, 3, 6, 7, 9, 11, 13, 15, 23, 30, 31, 32, 34, 36, 37, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7365079365079366</t>
+          <t>0.6193650793650793</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03696770018260627</t>
+          <t>0.04618643494883422</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.04283864733418241</t>
+          <t>0.12016566771819058</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.9728181546914976</t>
+          <t>0.7116582851374325</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.224294900894165</t>
+          <t>11.75448203086853</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -863,37 +863,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 6, 8, 12, 13, 15, 20, 21, 22, 23, 24, 25, 27, 34, 35, 37, 40, 44]</t>
+          <t>[0, 1, 2, 6, 7, 9, 13, 15, 17, 19, 20, 22, 23, 28, 30, 32, 34, 36, 41]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.4311507936507937</t>
+          <t>0.40301587301587305</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03634346327920454</t>
+          <t>0.04970680445765036</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.045508010236988264</t>
+          <t>0.09038999156855565</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.9693251016346226</t>
+          <t>0.836849893828809</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.2916259765625</t>
+          <t>11.573854207992554</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -905,175 +905,175 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 8, 9, 11, 12, 13, 14, 16, 17, 21, 26, 28, 32, 34, 36, 37, 40, 42, 43, 44]</t>
+          <t>[0, 1, 6, 8, 9, 13, 14, 16, 18, 19, 20, 22, 23, 24, 28, 31, 32, 36, 39]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9652777777777779</t>
+          <t>0.606031746031746</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.040696303265115495</t>
+          <t>0.0468074111962356</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0520727609839255</t>
+          <t>0.11610839144961588</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.9598367684698089</t>
+          <t>0.7308007250364931</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.164294719696045</t>
+          <t>12.516675233840942</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 6, 10, 12, 17, 21, 26, 31, 32, 34, 35, 37, 38, 39, 42]</t>
+          <t>[3, 6, 7, 9, 13, 14, 15, 17, 18, 19, 23, 25, 26, 27, 29, 32, 36, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.40496031746031746</t>
+          <t>0.37682539682539684</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04117921322426668</t>
+          <t>0.04667882376114054</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.040176659522461834</t>
+          <t>0.12254077115387507</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.9760913481794495</t>
+          <t>0.7001473529628537</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.2879512310028076</t>
+          <t>11.813739538192749</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 5, 8, 11, 14, 16, 17, 18, 21, 37, 41, 42, 43, 44]</t>
+          <t>[0, 6, 9, 10, 12, 16, 18, 19, 21, 24, 31, 36, 37, 43]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.584920634920635</t>
+          <t>0.24968253968253967</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.03927155558410261</t>
+          <t>0.04360088500062768</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.03946899347243324</t>
+          <t>0.06036845018202534</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.9769261778513243</t>
+          <t>0.9272275959775589</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.213505744934082</t>
+          <t>12.43361210823059</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 5, 6, 8, 12, 17, 20, 21, 22, 24, 27, 31, 34, 37, 39, 42, 44]</t>
+          <t>[2, 3, 5, 7, 11, 15, 17, 20, 23, 24, 26, 30, 31, 33, 35, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.551984126984127</t>
+          <t>0.34555555555555556</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.037916999113147734</t>
+          <t>0.05196785208385737</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.0270883317685845</t>
+          <t>0.16225368117421796</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9891314412319054</t>
+          <t>0.47430265155492823</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.29447340965271</t>
+          <t>12.245476961135864</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[0, 3, 8, 9, 13, 16, 20, 23, 24, 28, 29, 36, 37, 39, 41, 42, 43]</t>
+          <t>[3, 4, 10, 11, 12, 15, 16, 18, 21, 27, 29, 30, 34, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1083,291 +1083,291 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.4994047619047619</t>
+          <t>0.3387301587301587</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.041248687971640954</t>
+          <t>0.045705989625986966</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.05365540861075019</t>
+          <t>0.12235057337245388</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9573583057960133</t>
+          <t>0.7010774441971864</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.1947286128997803</t>
+          <t>11.389508485794067</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 9, 10, 11, 12, 20, 21, 27, 29, 36, 37, 38, 41, 44]</t>
+          <t>[1, 7, 11, 12, 17, 20, 25, 26, 27, 28, 31, 33, 36, 37, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.46051587301587305</t>
+          <t>0.6566666666666666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.038107606950122636</t>
+          <t>0.049008239057762235</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.06905200497693197</t>
+          <t>0.06855219787104679</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.9293747457030483</t>
+          <t>0.9061596895778699</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.1916537284851074</t>
+          <t>12.503097534179688</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 5, 6, 8, 9, 10, 11, 12, 14, 21, 25, 26, 30, 33, 36, 37, 43]</t>
+          <t>[0, 5, 7, 8, 9, 10, 12, 13, 14, 16, 21, 23, 24, 25, 27, 31, 32, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.601388888888889</t>
+          <t>0.4568253968253968</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0398159989165828</t>
+          <t>0.04957123666360909</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.0680514461215172</t>
+          <t>0.054351550964002536</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9314066276189135</t>
+          <t>0.9410110654541228</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.212935447692871</t>
+          <t>12.587661743164062</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 10, 12, 14, 15, 17, 18, 19, 22, 25, 27, 31, 32, 37, 38, 39, 40, 42, 43, 44]</t>
+          <t>[3, 9, 12, 14, 15, 17, 18, 20, 21, 22, 23, 26, 29, 31, 36, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.8347222222222221</t>
+          <t>0.22285714285714286</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04014670381962375</t>
+          <t>0.04170334120652973</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.03993459929909013</t>
+          <t>0.16085456532109063</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.9763785746251135</t>
+          <t>0.4833297543694798</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.2572739124298096</t>
+          <t>11.361936807632446</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 9, 11, 12, 21, 22, 23, 24, 25, 28, 34, 35, 37, 40, 44]</t>
+          <t>[8, 9, 11, 12, 21, 23, 24, 28, 29, 30, 31, 32, 33, 34, 35, 36, 38, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.5325396825396825</t>
+          <t>0.5049206349206349</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.038629137377172475</t>
+          <t>0.049370053192718644</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.040172645453110535</t>
+          <t>0.16471044594060597</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.9760961253905661</t>
+          <t>0.4582624304429379</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.2857117652893066</t>
+          <t>12.302078247070312</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 6, 8, 9, 12, 14, 15, 16, 17, 19, 23, 25, 26, 27, 30, 32, 33, 35, 37, 39, 44]</t>
+          <t>[1, 4, 5, 6, 8, 16, 22, 26, 27, 28, 29, 30, 32, 36, 39, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.6630952380952381</t>
+          <t>0.9355555555555555</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.03657687891275883</t>
+          <t>0.04942428579462658</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.05281583801018817</t>
+          <t>0.11716628432263354</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.9586823332783208</t>
+          <t>0.7258728923402411</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.309478282928467</t>
+          <t>12.86878228187561</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 5, 7, 8, 10, 11, 12, 16, 17, 23, 26, 27, 32, 34, 37, 39, 42, 44]</t>
+          <t>[0, 2, 3, 8, 9, 11, 12, 13, 14, 16, 17, 18, 22, 24, 25, 26, 27, 28, 32, 36, 38, 39, 40, 41]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.6339285714285714</t>
+          <t>1.1625396825396825</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.035794701731468426</t>
+          <t>0.04521562683560053</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.03822522617206408</t>
+          <t>0.0632290472473543</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9783574930467343</t>
+          <t>0.9201674604958714</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.2325387001037598</t>
+          <t>12.390969276428223</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 7, 8, 13, 14, 17, 18, 23, 24, 25, 27, 29, 30, 32, 37, 39, 42, 44]</t>
+          <t>[1, 2, 3, 8, 10, 11, 12, 14, 15, 18, 21, 25, 26, 27, 32, 36, 37, 39, 42, 44]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1377,165 +1377,165 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4801587301587301</t>
+          <t>0.7036507936507936</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.036588873757732746</t>
+          <t>0.045320659523409426</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.05119165205615559</t>
+          <t>0.06886821834219978</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.9611844513788537</t>
+          <t>0.9052925018070098</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.24130916595459</t>
+          <t>12.232122659683228</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[1, 2, 5, 6, 7, 8, 10, 13, 17, 19, 22, 26, 31, 32, 35, 37, 38, 41, 42, 44]</t>
+          <t>[0, 1, 2, 3, 6, 9, 10, 18, 19, 20, 22, 25, 26, 27, 28, 29, 30, 32, 33, 35, 36, 39, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.7658730158730159</t>
+          <t>0.9217460317460318</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.04161368296823938</t>
+          <t>0.049251161765651655</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.0390283456842971</t>
+          <t>0.05827085429309287</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.9774385127838071</t>
+          <t>0.9321969173509606</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.2951724529266357</t>
+          <t>12.11204743385315</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[1, 3, 5, 7, 9, 10, 12, 13, 14, 19, 21, 27, 36, 37, 38, 41, 44]</t>
+          <t>[0, 9, 10, 16, 20, 22, 23, 25, 27, 30, 31, 32, 33, 35, 36, 37, 39, 41, 43]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.44246031746031744</t>
+          <t>0.5571428571428572</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.03635202289801839</t>
+          <t>0.04637853297342262</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.06140199545125056</t>
+          <t>0.08982129395389729</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.9441565284715113</t>
+          <t>0.8388963858714245</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2.225569486618042</t>
+          <t>13.685278177261353</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 6, 8, 10, 13, 19, 20, 22, 23, 24, 25, 27, 36, 37, 39, 40, 41, 42, 43, 44]</t>
+          <t>[0, 1, 9, 10, 13, 14, 16, 17, 18, 19, 20, 21, 26, 29, 31, 34, 36, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.9253968253968254</t>
+          <t>0.5726984126984127</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.03941908102778968</t>
+          <t>0.046605838230094565</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.05136346725760397</t>
+          <t>0.12013520778156522</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.9609234598760332</t>
+          <t>0.7118044459731252</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.2176225185394287</t>
+          <t>13.114327192306519</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 6, 7, 8, 10, 14, 16, 18, 21, 23, 24, 32, 34, 35, 37, 38, 42]</t>
+          <t>[2, 3, 4, 10, 14, 17, 18, 19, 21, 22, 23, 25, 30, 31, 35, 36, 41]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1545,27 +1545,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.3813492063492064</t>
+          <t>0.3703174603174603</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.035969768295113</t>
+          <t>0.04938446919491706</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.05646064532333146</t>
+          <t>0.06158615066510502</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.9527829213441554</t>
+          <t>0.9242621819581481</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.2029731273651123</t>
+          <t>12.323513507843018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1577,163 +1577,163 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 14, 16, 19, 23, 25, 26, 28, 31, 34, 36, 37, 42, 44]</t>
+          <t>[0, 1, 3, 4, 6, 9, 10, 11, 13, 14, 15, 19, 20, 21, 24, 25, 26, 28, 29, 32, 34, 36, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0228174603174602</t>
+          <t>1.1379365079365078</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.035191326781462265</t>
+          <t>0.049620341471762267</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.0401704700255751</t>
+          <t>0.1431763739691273</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.9760987142038474</t>
+          <t>0.5906550962764676</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.218665838241577</t>
+          <t>12.557141542434692</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 9, 10, 11, 12, 13, 14, 15, 16, 19, 20, 23, 26, 28, 29, 30, 36, 37, 41]</t>
+          <t>[0, 1, 2, 3, 6, 9, 10, 12, 13, 14, 17, 18, 19, 22, 25, 30, 31, 36, 38, 40, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.7880952380952381</t>
+          <t>0.6926984126984127</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.038943990331246944</t>
+          <t>0.04726954894058073</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.06398393805177137</t>
+          <t>0.052779041189066775</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9393613713839437</t>
+          <t>0.9443750464073969</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.1426119804382324</t>
+          <t>12.166646242141724</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 5, 7, 8, 9, 10, 12, 13, 15, 18, 19, 20, 24, 25, 26, 30, 33, 35, 37, 39, 40, 44]</t>
+          <t>[0, 6, 9, 12, 13, 15, 17, 25, 26, 29, 32, 34, 35, 37, 41]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.7331349206349207</t>
+          <t>0.17825396825396825</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.04121767442512968</t>
+          <t>0.04792821042777232</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.0527808465977897</t>
+          <t>0.12801560131958767</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.9587370624901747</t>
+          <t>0.6727554141275858</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.1639058589935303</t>
+          <t>11.228456497192383</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 8, 9, 13, 15, 17, 18, 19, 23, 30, 35, 37, 38, 40, 42]</t>
+          <t>[1, 2, 5, 6, 10, 11, 12, 15, 18, 19, 20, 21, 23, 24, 25, 26, 28, 29, 32, 34, 36, 38, 42, 43]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.5394841269841271</t>
+          <t>0.8442857142857143</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0384212598298921</t>
+          <t>0.0468962911004102</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.056638789937434514</t>
+          <t>0.15008674160904278</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.9524844926549596</t>
+          <t>0.5501876996404664</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2.2242040634155273</t>
+          <t>11.953105449676514</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1745,37 +1745,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 8, 9, 10, 13, 15, 16, 17, 21, 22, 27, 37, 39, 41, 43, 44]</t>
+          <t>[0, 1, 3, 6, 7, 8, 11, 12, 14, 16, 17, 19, 20, 22, 23, 25, 26, 28, 31, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.6126984126984127</t>
+          <t>1.0623809523809524</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.03488917298412892</t>
+          <t>0.047410228131150305</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.0418432724618591</t>
+          <t>0.054231441148545945</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.9740666439392742</t>
+          <t>0.9412714930330797</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.216136932373047</t>
+          <t>13.202481269836426</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1787,121 +1787,121 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 6, 8, 9, 10, 12, 13, 14, 16, 18, 23, 25, 26, 27, 31, 34, 37, 38, 39, 41, 43]</t>
+          <t>[2, 4, 5, 6, 8, 9, 10, 14, 18, 25, 26, 32, 34, 36, 39, 43, 44]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.8496031746031746</t>
+          <t>0.25857142857142856</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.03698509850916586</t>
+          <t>0.04420101601194485</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.03174625984205621</t>
+          <t>0.07525335388160088</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.9850723112416727</t>
+          <t>0.8869167218887892</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.2891409397125244</t>
+          <t>12.197230100631714</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 6, 8, 9, 12, 14, 15, 16, 17, 19, 20, 22, 27, 29, 31, 36, 37, 39, 40, 41, 44]</t>
+          <t>[0, 3, 4, 8, 9, 12, 15, 16, 19, 20, 24, 25, 26, 27, 32, 33, 36, 37, 39, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.05515873015873</t>
+          <t>0.5995238095238095</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.03666879028623144</t>
+          <t>0.0481706979163171</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.04482975574980046</t>
+          <t>0.12140998344333422</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.9702326493343012</t>
+          <t>0.7056558093427733</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.2759957313537598</t>
+          <t>12.206225633621216</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 6, 8, 12, 14, 15, 19, 23, 25, 27, 30, 31, 33, 37, 39, 43]</t>
+          <t>[0, 2, 3, 6, 8, 9, 11, 14, 17, 19, 21, 22, 24, 25, 27, 32, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.5390873015873016</t>
+          <t>0.7417460317460318</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.03543300884811457</t>
+          <t>0.0475247909231744</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.04932194106030133</t>
+          <t>0.05964052266262144</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.9639680506789784</t>
+          <t>0.9289720058097904</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.2366185188293457</t>
+          <t>12.743272304534912</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1913,49 +1913,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[0, 11, 14, 15, 17, 18, 19, 22, 24, 25, 26, 28, 29, 30, 35, 37, 43]</t>
+          <t>[0, 4, 6, 7, 9, 10, 14, 16, 18, 19, 20, 21, 27, 28, 31, 32, 36, 42]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.7289682539682539</t>
+          <t>0.5457142857142857</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.04032497925318228</t>
+          <t>0.04873905616688309</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.06707595706368533</t>
+          <t>0.10370305554272725</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.9333590477243923</t>
+          <t>0.7852516802187415</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.210430145263672</t>
+          <t>11.102287769317627</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 4, 5, 7, 8, 9, 10, 11, 12, 13, 18, 19, 21, 23, 29, 36, 37, 39]</t>
+          <t>[0, 13, 15, 17, 20, 21, 22, 24, 26, 30, 31, 33, 35, 36, 37, 38, 39, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1965,81 +1965,81 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.6755952380952381</t>
+          <t>0.5549206349206349</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.03877553727680884</t>
+          <t>0.05041191719954001</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.05909081492854074</t>
+          <t>0.12891337693650143</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.9482813241542541</t>
+          <t>0.6681493756160523</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.288259267807007</t>
+          <t>12.00110387802124</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 16, 18, 19, 21, 23, 26, 27, 29, 31, 34, 37, 43]</t>
+          <t>[1, 2, 3, 8, 9, 12, 13, 15, 18, 23, 26, 29, 34, 36, 40, 44]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.5825396825396826</t>
+          <t>0.16269841269841268</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.041443143156573395</t>
+          <t>0.04541138141662413</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.029813636385808084</t>
+          <t>0.07259251591421591</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.9868345005566634</t>
+          <t>0.8947722302364803</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.2451465129852295</t>
+          <t>12.964525699615479</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 6, 7, 9, 11, 14, 17, 20, 22, 25, 27, 32, 34, 36, 37, 38, 41, 42, 44]</t>
+          <t>[1, 8, 9, 11, 12, 14, 16, 19, 20, 21, 26, 27, 29, 31, 32, 33, 35, 36, 38, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2049,27 +2049,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.861904761904762</t>
+          <t>0.9573015873015871</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.03971106314585516</t>
+          <t>0.0492383394089251</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.06138828367753996</t>
+          <t>0.14998660873058162</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.9441814666691354</t>
+          <t>0.550787699014047</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.280456066131592</t>
+          <t>12.447282075881958</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2081,301 +2081,301 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 5, 6, 8, 9, 10, 12, 13, 14, 18, 19, 25, 27, 29, 30, 35, 37, 39, 41, 42, 43, 44]</t>
+          <t>[0, 1, 2, 8, 9, 10, 12, 18, 23, 24, 28, 30, 31, 36, 39, 44]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.6567460317460317</t>
+          <t>0.2292063492063492</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.0371872397149523</t>
+          <t>0.04801124356542692</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.0485208657325213</t>
+          <t>0.09896974174416844</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.9651289904707715</t>
+          <t>0.8044077948817332</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.2737207412719727</t>
+          <t>12.161032676696777</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 6, 7, 8, 9, 13, 14, 15, 17, 22, 23, 25, 34, 37, 41, 42, 44]</t>
+          <t>[3, 4, 6, 10, 13, 17, 19, 23, 26, 28, 32, 36, 37, 38, 39, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.6234126984126984</t>
+          <t>0.45444444444444443</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.03436214189869414</t>
+          <t>0.04667183479580152</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.04440525059004826</t>
+          <t>0.090343046863255</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.9707937304739345</t>
+          <t>0.8370193162312994</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2.2367141246795654</t>
+          <t>11.863726377487183</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[6, 9, 13, 16, 18, 19, 20, 23, 24, 25, 26, 27, 29, 30, 35, 37, 39, 41, 44]</t>
+          <t>[3, 4, 6, 8, 13, 16, 17, 22, 23, 24, 27, 30, 32, 36, 37, 41, 42]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.4125</t>
+          <t>0.43222222222222223</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.039965263157569</t>
+          <t>0.04835727915713751</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.044287194789500814</t>
+          <t>0.07591552816651267</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.970948819617592</t>
+          <t>0.884917866471661</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2.3480420112609863</t>
+          <t>11.4426589012146</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 11, 15, 18, 19, 23, 25, 26, 27, 34, 36, 37, 39, 40, 42]</t>
+          <t>[5, 6, 10, 17, 19, 22, 26, 30, 32, 34, 36, 40, 41, 42]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.9255952380952381</t>
+          <t>0.2633333333333333</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.03809215605605</t>
+          <t>0.04083365321475736</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.05369390533482746</t>
+          <t>0.05638157305540308</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9572970946534899</t>
+          <t>0.9365223199254077</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2.201702356338501</t>
+          <t>11.843505859375</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 20, 21, 23, 26, 27, 28, 32, 34, 36, 37, 44]</t>
+          <t>[7, 11, 13, 15, 17, 18, 20, 23, 24, 30, 31, 32, 34, 37, 43]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.8849206349206349</t>
+          <t>0.16714285714285715</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.04044040587806973</t>
+          <t>0.04717305297247677</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.04855298927156254</t>
+          <t>0.1730223061862179</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.965082802051409</t>
+          <t>0.40220694983827376</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.2653443813323975</t>
+          <t>12.21605396270752</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[1, 7, 8, 9, 11, 12, 15, 16, 17, 18, 23, 25, 26, 30, 32, 35, 37]</t>
+          <t>[9, 12, 15, 16, 17, 21, 22, 32, 34, 36, 37, 39, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.19174603174603175</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.03549879688336369</t>
+          <t>0.045535699790879326</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.05139996405784882</t>
+          <t>0.16205205687660498</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9608679077319044</t>
+          <t>0.4756083538554893</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.300987720489502</t>
+          <t>12.716630935668945</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 9, 11, 13, 14, 15, 22, 23, 25, 26, 28, 29, 36, 37, 41]</t>
+          <t>[5, 9, 12, 13, 15, 16, 17, 22, 23, 25, 30, 32, 33, 34, 35, 36, 40]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.8011904761904762</t>
+          <t>0.24079365079365078</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.03888042311832961</t>
+          <t>0.05013247681117945</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.058716948521372256</t>
+          <t>0.12482359400787534</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.9489336998812071</t>
+          <t>0.6888713283050971</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.2475533485412598</t>
+          <t>11.684460878372192</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 5, 7, 8, 9, 13, 14, 16, 20, 23, 27, 29, 35, 37, 39, 42, 43, 44]</t>
+          <t>[3, 4, 6, 10, 12, 13, 17, 18, 20, 21, 25, 27, 32, 33, 35, 36, 37, 39, 40, 44]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2385,27 +2385,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.640079365079365</t>
+          <t>0.19142857142857145</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0387228673294998</t>
+          <t>0.04528221090487437</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.046885498757461674</t>
+          <t>0.08241744488180774</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.967439990806967</t>
+          <t>0.8643608805782979</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.094848871231079</t>
+          <t>11.794533729553223</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2417,79 +2417,79 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[1, 3, 8, 10, 13, 14, 15, 21, 23, 24, 27, 28, 29, 30, 35, 37, 41, 43]</t>
+          <t>[0, 1, 2, 3, 11, 18, 23, 26, 27, 28, 30, 34, 36, 37, 42, 43]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.49444444444444446</t>
+          <t>0.5228571428571429</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.04060180042924435</t>
+          <t>0.053044966262712365</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.04676179456441059</t>
+          <t>0.15189048972865615</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.96761157887658</t>
+          <t>0.5393110094255116</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.2310709953308105</t>
+          <t>27.36521887779236</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 7, 8, 9, 12, 13, 14, 15, 16, 17, 23, 26, 29, 31, 36, 37, 38, 39, 43]</t>
+          <t>[0, 3, 6, 9, 10, 12, 16, 21, 27, 30, 31, 34, 36, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.4736111111111111</t>
+          <t>0.16015873015873017</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.040088739715111836</t>
+          <t>0.0454603444764783</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.043022985592108494</t>
+          <t>0.08133856424616928</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.9725837199016953</t>
+          <t>0.8678887890792697</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.2768945693969727</t>
+          <t>14.899499654769897</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2501,121 +2501,121 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 6, 7, 8, 9, 12, 13, 14, 19, 21, 24, 30, 31, 36, 37, 39, 40, 42, 44]</t>
+          <t>[3, 7, 8, 9, 11, 15, 18, 21, 23, 26, 28, 29, 32, 34, 36, 39, 41, 44]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.6075396825396826</t>
+          <t>0.7236507936507937</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.03556930399201601</t>
+          <t>0.04439694714883015</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.044192404257890394</t>
+          <t>0.08936416479726908</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.9710730464876303</t>
+          <t>0.8405320282496127</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.2908551692962646</t>
+          <t>11.785165548324585</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[1, 4, 6, 7, 8, 10, 11, 12, 14, 21, 25, 27, 29, 32, 33, 37, 41, 42]</t>
+          <t>[6, 11, 12, 13, 14, 16, 17, 18, 19, 21, 24, 26, 29, 30, 31, 32, 34, 36, 39]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.670436507936508</t>
+          <t>0.38301587301587303</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.036461101034628365</t>
+          <t>0.0443354186365107</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.04902362756990212</t>
+          <t>0.13546545123625248</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.9644025960495803</t>
+          <t>0.6335592486683175</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.2015607357025146</t>
+          <t>12.474724531173706</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 6, 7, 9, 10, 11, 12, 14, 15, 25, 26, 28, 30, 32, 35, 37, 39, 40, 41, 42, 43]</t>
+          <t>[3, 11, 17, 18, 25, 27, 29, 34, 36, 39, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1.0148809523809523</t>
+          <t>0.22936507936507936</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.039987352463244634</t>
+          <t>0.04299596281455703</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.050235594523227824</t>
+          <t>0.08720719009741852</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.9626207544924064</t>
+          <t>0.8481372515412948</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.2789504528045654</t>
+          <t>11.11313247680664</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2627,541 +2627,541 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 7, 8, 9, 10, 11, 12, 14, 16, 17, 19, 20, 27, 29, 30, 32, 35, 37, 42, 43]</t>
+          <t>[0, 1, 5, 8, 13, 17, 18, 21, 22, 24, 25, 28, 30, 33, 34, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.8601190476190477</t>
+          <t>0.42365079365079367</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.04113450083157655</t>
+          <t>0.05086529504198729</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.0524771724947839</t>
+          <t>0.057978408419634274</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.9592105084208824</t>
+          <t>0.9328757807179353</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.2964580059051514</t>
+          <t>12.329866886138916</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[2, 3, 9, 12, 14, 15, 16, 18, 19, 20, 21, 23, 25, 27, 34, 35, 37, 39, 40, 42]</t>
+          <t>[1, 4, 8, 9, 11, 12, 17, 20, 21, 23, 27, 28, 29, 32, 35, 36, 37, 38, 39, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.42142857142857143</t>
+          <t>1.0907936507936506</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.038752729613752215</t>
+          <t>0.054597415572152495</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.05921819570664968</t>
+          <t>0.09923733138850786</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.9480581061821808</t>
+          <t>0.8033486993890305</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2.2303659915924072</t>
+          <t>11.905659675598145</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[2, 3, 6, 7, 8, 11, 15, 18, 19, 22, 23, 24, 25, 27, 33, 34, 37, 44]</t>
+          <t>[2, 3, 6, 10, 12, 16, 20, 22, 23, 25, 26, 27, 28, 29, 30, 32, 34, 36, 38, 39, 40, 41, 43]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.6047619047619048</t>
+          <t>0.7553968253968254</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.03951265973202202</t>
+          <t>0.046215333703783425</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.060433754460221686</t>
+          <t>0.08693812160383499</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.9459038210963955</t>
+          <t>0.8490729185210633</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.296078681945801</t>
+          <t>12.997386455535889</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 5, 7, 9, 10, 11, 12, 14, 16, 17, 25, 26, 27, 31, 35, 37, 40, 43, 44]</t>
+          <t>[2, 3, 10, 12, 13, 16, 18, 19, 20, 21, 22, 23, 25, 26, 27, 28, 29, 30, 31, 32, 36, 37, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.526984126984127</t>
+          <t>0.643968253968254</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.04074485641645578</t>
+          <t>0.05094388629218712</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.04201222293953919</t>
+          <t>0.07225987800916095</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.9738567990525453</t>
+          <t>0.8957343831135192</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.3475942611694336</t>
+          <t>10.706992387771606</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 8, 10, 13, 14, 17, 20, 25, 26, 27, 28, 29, 32, 34, 35, 37, 39, 40, 41, 42, 44]</t>
+          <t>[0, 1, 2, 4, 5, 6, 10, 15, 18, 20, 23, 24, 28, 29, 31, 32, 36, 41, 42]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1.0482142857142858</t>
+          <t>0.4203174603174603</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.04150643835102511</t>
+          <t>0.04594738401346907</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.04022161737183527</t>
+          <t>0.10124955705363524</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.9760378104797737</t>
+          <t>0.7952928872755072</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2.337935447692871</t>
+          <t>11.837758779525757</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 5, 6, 7, 10, 11, 13, 14, 17, 18, 19, 24, 25, 27, 32, 34, 37, 41, 42, 43, 44]</t>
+          <t>[4, 5, 8, 9, 10, 11, 14, 16, 17, 26, 27, 28, 29, 32, 34, 36, 42, 43]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.7039682539682539</t>
+          <t>0.9887301587301588</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.039954838980927505</t>
+          <t>0.04467184673409867</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.05103267060458622</t>
+          <t>0.11917089978439707</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9614251691412818</t>
+          <t>0.7164124857601408</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.2191853523254395</t>
+          <t>11.039838790893555</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 3, 5, 6, 7, 8, 13, 14, 15, 16, 17, 18, 19, 22, 23, 26, 27, 29, 30, 32, 37, 40, 41, 44]</t>
+          <t>[3, 12, 13, 14, 18, 22, 24, 28, 30, 33, 35, 36, 37, 41]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.8355158730158729</t>
+          <t>0.293968253968254</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.04016369927340389</t>
+          <t>0.0472440405930178</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.04604884687530401</t>
+          <t>0.11197013801821032</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.9685916619260013</t>
+          <t>0.7496479822280427</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.2437171936035156</t>
+          <t>11.559263706207275</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 5, 6, 8, 9, 11, 12, 16, 18, 19, 20, 21, 22, 24, 26, 28, 32, 34, 36, 37, 39, 41, 42, 43, 44]</t>
+          <t>[2, 3, 6, 9, 10, 13, 15, 18, 20, 21, 22, 23, 27, 28, 30, 32, 33, 36, 37, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1.454563492063492</t>
+          <t>0.47888888888888886</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.0403195820806897</t>
+          <t>0.04493696301782231</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.04489906197351758</t>
+          <t>0.1183286168959509</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9701405383082965</t>
+          <t>0.7204070313020816</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2.211930274963379</t>
+          <t>11.061651706695557</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[0, 2, 6, 7, 8, 13, 14, 15, 17, 19, 21, 23, 24, 28, 32, 37, 39, 40, 41, 43]</t>
+          <t>[6, 10, 12, 13, 14, 20, 28, 29, 30, 31, 37, 39, 40, 43]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.7494047619047619</t>
+          <t>0.24031746031746032</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.03818900274607032</t>
+          <t>0.043104560320019775</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.054993492452222265</t>
+          <t>0.13744268700598344</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.9552049484687004</t>
+          <t>0.6227841411037649</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.172452449798584</t>
+          <t>11.668875455856323</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 6, 7, 8, 9, 10, 12, 13, 23, 24, 26, 27, 28, 30, 34, 35, 37, 40, 42]</t>
+          <t>[1, 3, 4, 9, 10, 12, 17, 20, 21, 22, 23, 25, 28, 30, 31, 32, 33, 34, 35, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.560515873015873</t>
+          <t>0.6349206349206349</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.03687744091665674</t>
+          <t>0.04837608677318671</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.04153989204767869</t>
+          <t>0.046008900694565286</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.97444133501674</t>
+          <t>0.9577301815738394</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2.2613236904144287</t>
+          <t>11.82877516746521</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 5, 6, 8, 10, 11, 13, 19, 21, 22, 26, 31, 32, 35, 37, 42, 43, 44]</t>
+          <t>[3, 4, 6, 10, 12, 14, 16, 20, 22, 25, 30, 31, 34, 36, 38, 42, 43]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.7172619047619048</t>
+          <t>0.5395238095238095</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.03734124038301758</t>
+          <t>0.04615906581896062</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.037976010828875466</t>
+          <t>0.07367367614701525</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.9786387765330904</t>
+          <t>0.8916144588359484</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2.3198461532592773</t>
+          <t>12.640777111053467</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[2, 4, 6, 8, 10, 13, 14, 18, 19, 21, 29, 32, 33, 34, 35, 37, 40, 43, 44]</t>
+          <t>[0, 1, 8, 9, 13, 15, 16, 17, 18, 20, 22, 23, 24, 25, 28, 32, 34, 35, 36, 37, 39, 43]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.575595238095238</t>
+          <t>0.6193650793650793</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.04042533677010805</t>
+          <t>0.047935796897383934</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.052587881535965074</t>
+          <t>0.10679550928257305</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.959038222885853</t>
+          <t>0.7722530071807328</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.248765707015991</t>
+          <t>16.072407722473145</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 2, 8, 11, 13, 14, 15, 16, 17, 19, 22, 23, 25, 26, 27, 28, 29, 30, 32, 36, 37, 38, 39, 40, 41, 42]</t>
+          <t>[2, 6, 9, 10, 12, 14, 16, 17, 18, 19, 22, 23, 24, 28, 29, 32, 33, 34, 36, 37, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1.2807539682539681</t>
+          <t>0.6638095238095238</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.043102685837030016</t>
+          <t>0.045077344874596824</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.050049401720014736</t>
+          <t>0.07115778804278187</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.9628973252703485</t>
+          <t>0.8988905965772214</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2.2453079223632812</t>
+          <t>12.866891860961914</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3173,37 +3173,37 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 4, 6, 8, 10, 12, 14, 21, 24, 26, 27, 29, 34, 37, 38, 39, 40, 41, 42, 43, 44]</t>
+          <t>[3, 8, 9, 10, 12, 13, 15, 16, 17, 20, 21, 23, 24, 28, 32, 33, 36, 38, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.7871031746031746</t>
+          <t>0.2806349206349207</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.037729557482933454</t>
+          <t>0.04644886499465295</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.03873856981762998</t>
+          <t>0.09197938425899253</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.9777722960233148</t>
+          <t>0.8310618769081759</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.335998058319092</t>
+          <t>12.354111909866333</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3215,37 +3215,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 7, 8, 9, 10, 12, 13, 14, 15, 16, 17, 20, 26, 32, 34, 35, 37, 38, 40, 41, 42]</t>
+          <t>[1, 3, 5, 6, 10, 14, 16, 17, 18, 20, 22, 24, 25, 28, 31, 32, 36, 37, 44]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.7914682539682539</t>
+          <t>0.4011111111111111</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0397742030716947</t>
+          <t>0.046792365080991265</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.03930949472240385</t>
+          <t>0.09773852405015832</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.9771122889891748</t>
+          <t>0.8092439934791781</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.2880420684814453</t>
+          <t>12.905735969543457</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3257,7 +3257,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 8, 12, 18, 20, 21, 22, 23, 24, 25, 26, 31, 32, 33, 34, 37, 38, 43, 44]</t>
+          <t>[3, 5, 7, 8, 9, 12, 13, 16, 17, 18, 22, 24, 26, 30, 32, 33, 34, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3267,153 +3267,153 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.4916666666666667</t>
+          <t>0.3703174603174603</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.040301786259381765</t>
+          <t>0.04541155526067551</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.03696514328059902</t>
+          <t>0.08497215871483536</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.9797608520075288</t>
+          <t>0.8558216761741241</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.2029802799224854</t>
+          <t>12.52615213394165</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[3, 7, 8, 9, 10, 12, 13, 18, 20, 23, 28, 31, 35, 37, 43]</t>
+          <t>[0, 1, 9, 10, 13, 16, 17, 19, 20, 21, 23, 24, 25, 27, 30, 33, 36, 37, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.33075396825396824</t>
+          <t>0.45444444444444443</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.03599047396236953</t>
+          <t>0.04794305054535584</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.03737590305936141</t>
+          <t>0.17558458994303786</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.9793085546828135</t>
+          <t>0.38437044046095614</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.1571450233459473</t>
+          <t>11.918492794036865</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[0, 3, 4, 6, 7, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 19, 20, 21, 26, 30, 35, 37, 39, 40, 43]</t>
+          <t>[1, 9, 12, 13, 17, 18, 19, 24, 27, 28, 32, 34, 36, 37, 41, 43]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.7039682539682539</t>
+          <t>0.45206349206349206</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.04003959851477717</t>
+          <t>0.04633466759767665</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.048523504254604985</t>
+          <t>0.10324522675987576</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.9651251978578825</t>
+          <t>0.7871436386384747</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.2425496578216553</t>
+          <t>12.485673904418945</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 6, 8, 10, 11, 13, 15, 16, 17, 18, 23, 25, 28, 30, 32, 33, 35, 37, 38, 39]</t>
+          <t>[1, 3, 6, 14, 16, 17, 18, 21, 22, 23, 24, 25, 26, 32, 34, 37, 38, 39, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.7700396825396825</t>
+          <t>0.6061904761904762</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.03826740393692505</t>
+          <t>0.04670555614848409</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.058141743211519</t>
+          <t>0.14953971055631002</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.9499293146830525</t>
+          <t>0.553460645346951</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.14884614944458</t>
+          <t>11.292592525482178</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3425,49 +3425,49 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 6, 8, 11, 12, 13, 16, 19, 24, 29, 37, 41, 43, 44]</t>
+          <t>[2, 3, 8, 10, 12, 13, 15, 16, 19, 27, 29, 32, 33, 35, 36, 37, 44]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0.49682539682539684</t>
+          <t>0.26285714285714284</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.03853201930602183</t>
+          <t>0.048529777548819514</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.03750165997408787</t>
+          <t>0.06264327577442261</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.9791690814030363</t>
+          <t>0.9216397904034488</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.223623514175415</t>
+          <t>11.809855699539185</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[1, 3, 4, 8, 9, 11, 13, 14, 18, 23, 25, 26, 27, 30, 32, 35, 37, 38, 39]</t>
+          <t>[1, 3, 6, 7, 8, 11, 12, 14, 15, 16, 19, 29, 31, 32, 33, 34, 35, 36, 37]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3477,27 +3477,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.7345238095238095</t>
+          <t>0.6190476190476191</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.038421232973739956</t>
+          <t>0.04305069264361035</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.048226582240217496</t>
+          <t>0.05571229976811128</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.965550699458816</t>
+          <t>0.9380203896754209</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.275562286376953</t>
+          <t>11.113491296768188</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3509,205 +3509,205 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 12, 13, 14, 17, 18, 19, 20, 21, 22, 23, 24, 25, 27, 28, 31, 37, 40, 41]</t>
+          <t>[4, 10, 11, 12, 15, 20, 21, 26, 34, 37, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.9742063492063493</t>
+          <t>0.2785714285714286</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.039124839259410425</t>
+          <t>0.047720193725244546</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.02461293022467251</t>
+          <t>0.16176216041749164</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.9910270741415595</t>
+          <t>0.4774828540619943</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.1610219478607178</t>
+          <t>11.651947736740112</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 5, 6, 7, 8, 11, 12, 14, 15, 16, 19, 23, 28, 29, 30, 31, 34, 37, 39, 44]</t>
+          <t>[3, 5, 6, 8, 10, 12, 13, 15, 16, 18, 20, 21, 22, 25, 27, 30, 32, 36, 39]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.6761904761904762</t>
+          <t>0.29428571428571426</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.03821781287304814</t>
+          <t>0.041030417228005336</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.028867968138513635</t>
+          <t>0.09901652743524146</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.9876564559044729</t>
+          <t>0.8042228276530164</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2.1602377891540527</t>
+          <t>12.237102746963501</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[3, 7, 8, 9, 11, 17, 19, 21, 24, 25, 30, 32, 37, 39, 40, 43]</t>
+          <t>[2, 6, 9, 10, 14, 18, 19, 20, 21, 24, 30, 32, 36, 39, 40, 41, 42, 43]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.531547619047619</t>
+          <t>0.28317460317460313</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.04190586741655184</t>
+          <t>0.04347763807989157</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.048236342829876495</t>
+          <t>0.17193144408691233</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.9655367536431515</t>
+          <t>0.40972105714551765</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.220095157623291</t>
+          <t>11.31845736503601</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 8, 12, 13, 15, 17, 19, 22, 27, 28, 29, 34, 36, 37, 39, 41, 42, 43, 44]</t>
+          <t>[1, 3, 5, 6, 10, 12, 15, 16, 17, 18, 22, 25, 26, 27, 29, 31, 32, 36, 37, 38, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1.0089285714285714</t>
+          <t>0.5392063492063492</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.038390089041949474</t>
+          <t>0.04778892145320015</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0470456263353842</t>
+          <t>0.06262967032469603</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.9672172072687243</t>
+          <t>0.9216738247065237</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2.2124874591827393</t>
+          <t>12.100291967391968</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 8, 9, 12, 14, 16, 18, 19, 24, 26, 27, 29, 34, 36, 37, 41, 44]</t>
+          <t>[1, 2, 3, 4, 5, 6, 9, 12, 13, 16, 18, 20, 21, 22, 26, 27, 28, 29, 31, 32, 33, 34, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0.5551587301587302</t>
+          <t>0.8326984126984127</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.037638862898626245</t>
+          <t>0.053881936065143535</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.05124545436432075</t>
+          <t>0.09797212792108047</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.9611028183993122</t>
+          <t>0.8083310557247497</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2.314568281173706</t>
+          <t>12.518733739852905</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3719,121 +3719,121 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 5, 6, 8, 10, 11, 12, 14, 17, 20, 22, 25, 26, 27, 32, 37, 38, 43]</t>
+          <t>[0, 1, 6, 9, 12, 13, 14, 16, 17, 18, 22, 24, 26, 29, 34, 36, 38, 39, 41]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0.6529761904761905</t>
+          <t>0.715079365079365</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.04097782454554469</t>
+          <t>0.0456607548605199</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.04478911642568716</t>
+          <t>0.10089058231131827</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.9702865946065021</t>
+          <t>0.7967418697149755</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.2783007621765137</t>
+          <t>12.870087623596191</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 6, 7, 8, 10, 11, 13, 17, 18, 19, 21, 23, 24, 26, 27, 30, 32, 33, 34, 37, 42]</t>
+          <t>[0, 3, 7, 8, 9, 11, 12, 14, 17, 21, 22, 25, 28, 30, 31, 32, 34, 36, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0.7186507936507937</t>
+          <t>0.7036507936507936</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.03947293780664292</t>
+          <t>0.05215913204888173</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.058447977235709235</t>
+          <t>0.03482951132671994</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.9494004785260062</t>
+          <t>0.975776246900496</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2.2309272289276123</t>
+          <t>12.942176103591919</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 6, 7, 8, 13, 14, 17, 18, 19, 20, 21, 23, 24, 26, 27, 28, 34, 35, 37, 38, 41, 42, 43]</t>
+          <t>[2, 3, 6, 10, 11, 12, 14, 16, 17, 18, 25, 33, 36, 37, 39, 40, 41, 44]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0.8878968253968254</t>
+          <t>0.5861904761904762</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.04003979975900875</t>
+          <t>0.042844675400132794</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.04197782875717946</t>
+          <t>0.05703307118615144</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.9738995868839994</t>
+          <t>0.9350468547015746</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2.23637056350708</t>
+          <t>12.271318912506104</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3845,133 +3845,133 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 6, 8, 10, 12, 14, 16, 17, 20, 22, 23, 25, 28, 29, 35, 37, 39, 40, 41, 42, 43, 44]</t>
+          <t>[5, 15, 17, 22, 28, 30, 35, 36, 37, 39, 40, 42]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0.8932539682539682</t>
+          <t>0.28539682539682537</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.040140572180604524</t>
+          <t>0.04655828254089576</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.04672088001186651</t>
+          <t>0.11577927933394626</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.9676682310235851</t>
+          <t>0.7323246661915236</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2.2910172939300537</t>
+          <t>12.40267300605774</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[0, 1, 3, 7, 9, 13, 14, 16, 17, 19, 20, 21, 24, 25, 35, 37, 38, 41, 44]</t>
+          <t>[0, 1, 2, 6, 8, 10, 14, 16, 18, 19, 20, 21, 22, 24, 26, 27, 28, 30, 31, 32, 36, 37, 40, 41]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0.6595238095238095</t>
+          <t>0.8487301587301588</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.04156549768469832</t>
+          <t>0.05136098856795814</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.07111837075311611</t>
+          <t>0.08880297570338735</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.9250846115185742</t>
+          <t>0.842528593468335</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.2125353813171387</t>
+          <t>12.512650966644287</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 7, 12, 19, 20, 22, 26, 27, 29, 30, 31, 37, 38, 39, 40, 41]</t>
+          <t>[8, 11, 15, 17, 22, 25, 27, 30, 31, 35, 36, 37, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0.569047619047619</t>
+          <t>0.5034920634920634</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.03786546619901457</t>
+          <t>0.046088817482586884</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.027656766048931223</t>
+          <t>0.051070591841460906</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.9886705133972664</t>
+          <t>0.9479179043797392</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.2565979957580566</t>
+          <t>12.576300144195557</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 5, 6, 7, 10, 12, 13, 15, 18, 21, 25, 26, 28, 29, 32, 34, 37]</t>
+          <t>[0, 1, 8, 12, 16, 17, 22, 23, 24, 25, 27, 32, 34, 36, 37, 39, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3981,27 +3981,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0.47718253968253965</t>
+          <t>0.5949206349206348</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.03885478810752116</t>
+          <t>0.0449866597794501</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.05182668464205313</t>
+          <t>0.06837269332666171</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.9602154643064809</t>
+          <t>0.9066504895408</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.1923558712005615</t>
+          <t>11.751444339752197</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4013,49 +4013,49 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 7, 8, 9, 10, 12, 14, 17, 20, 22, 23, 24, 26, 28, 32, 36, 37, 38, 39, 40, 42]</t>
+          <t>[1, 3, 9, 10, 14, 16, 17, 18, 19, 23, 25, 27, 29, 30, 33, 35, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1.045436507936508</t>
+          <t>0.3163492063492063</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.04265970862713313</t>
+          <t>0.04440081354642529</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.05049351536617304</t>
+          <t>0.12096071385063834</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.9622359422555152</t>
+          <t>0.7078301811435914</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2.3189265727996826</t>
+          <t>12.849542617797852</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[0, 1, 2, 7, 10, 13, 15, 16, 17, 20, 21, 22, 23, 24, 25, 26, 34, 35, 37, 40, 44]</t>
+          <t>[2, 3, 5, 8, 9, 11, 12, 13, 15, 17, 19, 20, 25, 27, 29, 30, 32, 36, 41, 42, 44]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4065,39 +4065,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.36666666666666664</t>
+          <t>0.5926984126984127</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.038075116749856815</t>
+          <t>0.048779947359953224</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.04549913864751049</t>
+          <t>0.1518902896467512</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.9693370603459955</t>
+          <t>0.5393122231350767</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.194591760635376</t>
+          <t>11.151110172271729</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 7, 10, 11, 15, 19, 22, 23, 25, 28, 31, 35, 37, 40, 42, 44]</t>
+          <t>[3, 4, 8, 9, 12, 13, 19, 20, 22, 24, 25, 26, 27, 30, 32, 33, 36, 43]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4107,69 +4107,69 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0.691468253968254</t>
+          <t>0.3187301587301587</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.038308648629579126</t>
+          <t>0.04716181032439542</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.04536962705660269</t>
+          <t>0.05637525421363801</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.9695113737185035</t>
+          <t>0.9365365473730564</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2.2841899394989014</t>
+          <t>12.086169719696045</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[3, 5, 8, 12, 13, 15, 16, 21, 24, 25, 27, 31, 37, 39, 41, 42, 43, 44]</t>
+          <t>[1, 4, 8, 9, 10, 11, 12, 13, 15, 18, 20, 23, 24, 26, 27, 28, 29, 32, 33, 34, 35, 36, 42, 44]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0.5251984126984127</t>
+          <t>0.8947619047619049</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.034972425089090514</t>
+          <t>0.046169678689442786</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.025611584176729225</t>
+          <t>0.12003938332431584</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.9902841607109939</t>
+          <t>0.7122640143077037</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2.2877650260925293</t>
+          <t>11.944839239120483</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4181,49 +4181,49 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 7, 8, 14, 17, 19, 26, 27, 31, 32, 33, 34, 35, 37, 38, 42]</t>
+          <t>[2, 3, 8, 9, 11, 12, 16, 17, 19, 24, 34, 37, 40]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0.6755952380952381</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.039377044563319905</t>
+          <t>0.04804229066511404</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.05075607242928368</t>
+          <t>0.04735204546980465</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.9618421887730038</t>
+          <t>0.9552261791759726</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2.2906785011291504</t>
+          <t>12.000797748565674</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 9, 13, 14, 15, 17, 20, 23, 26, 31, 35, 36, 37, 40, 41, 42, 43, 44]</t>
+          <t>[0, 3, 8, 11, 12, 14, 16, 17, 18, 21, 22, 23, 30, 31, 32, 33, 35, 36, 37, 44]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4233,27 +4233,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0.6265873015873016</t>
+          <t>0.5031746031746032</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.04115727876013601</t>
+          <t>0.04453370701545982</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.045163935349875055</t>
+          <t>0.04782542792277087</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.9697871988473756</t>
+          <t>0.9543264889624099</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.303234338760376</t>
+          <t>11.854345798492432</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4265,121 +4265,121 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[1, 2, 6, 8, 10, 11, 12, 14, 17, 27, 28, 30, 32, 37, 39, 40, 41, 42, 43]</t>
+          <t>[3, 6, 11, 12, 13, 14, 17, 18, 19, 21, 22, 30, 33, 34, 36, 37, 38, 39, 40, 41, 42, 43, 44]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.8930555555555555</t>
+          <t>0.5838095238095238</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.03839338272717642</t>
+          <t>0.04504053669232831</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.04272702547264821</t>
+          <t>0.0748423476010878</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.9729596220579657</t>
+          <t>0.8881485876433544</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2.2261977195739746</t>
+          <t>11.942007780075073</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 6, 7, 8, 14, 17, 24, 25, 31, 37, 39, 42, 44]</t>
+          <t>[1, 8, 9, 11, 12, 13, 14, 15, 16, 17, 21, 23, 25, 27, 28, 32, 33, 36, 37, 40, 42]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0.3954365079365079</t>
+          <t>0.7947619047619048</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.036002347849372424</t>
+          <t>0.04676347157624444</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.03188776580165978</t>
+          <t>0.07708880605429887</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.9849389371214559</t>
+          <t>0.8813331790807443</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2.2241387367248535</t>
+          <t>12.167155742645264</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 8, 15, 17, 18, 24, 26, 27, 28, 35, 37, 39, 42, 43]</t>
+          <t>[0, 1, 4, 5, 7, 8, 9, 11, 12, 16, 17, 20, 21, 22, 24, 25, 27, 30, 32, 36, 39, 41, 43, 44]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0.5867063492063492</t>
+          <t>0.9022222222222221</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.03494476019222913</t>
+          <t>0.04906448391261636</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.05653480823376083</t>
+          <t>0.06933144143017168</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.9526587975127427</t>
+          <t>0.9040141692782634</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2.247129440307617</t>
+          <t>12.864983320236206</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4391,121 +4391,121 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[3, 4, 9, 10, 12, 18, 20, 21, 27, 30, 35, 37, 39, 42, 44]</t>
+          <t>[3, 6, 13, 15, 22, 23, 25, 26, 27, 29, 30, 31, 32, 33, 35, 36, 37, 39, 41]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0.19880952380952382</t>
+          <t>0.45238095238095233</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.03604964138345696</t>
+          <t>0.045333467767656024</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.060285057200834935</t>
+          <t>0.04273519899518217</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.9461697009029285</t>
+          <t>0.9635314807208252</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.2190518379211426</t>
+          <t>12.127245664596558</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 11, 12, 13, 14, 15, 17, 18, 20, 21, 23, 26, 28, 29, 30, 31, 32, 36, 37, 40, 42, 44]</t>
+          <t>[0, 1, 7, 8, 12, 15, 19, 22, 24, 25, 26, 27, 34, 36, 38, 40, 42, 44]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0.7611111111111111</t>
+          <t>0.5484126984126984</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.042418646463627065</t>
+          <t>0.0475195252365669</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.04216785134341269</t>
+          <t>0.04432184444701798</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.973662752645293</t>
+          <t>0.9607732507445037</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2.252683639526367</t>
+          <t>16.16694927215576</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 5, 7, 15, 20, 23, 24, 25, 30, 35, 37, 39, 41, 42, 44]</t>
+          <t>[7, 9, 11, 14, 16, 20, 23, 25, 26, 27, 29, 31, 32, 33, 36, 37, 38, 41, 43]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0.5005952380952381</t>
+          <t>0.6414285714285715</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.038838328091340954</t>
+          <t>0.04955456113441937</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.06597007635091917</t>
+          <t>0.1755114732383578</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9355383509075342</t>
+          <t>0.3848830530156817</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.140672445297241</t>
+          <t>12.800470113754272</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4517,168 +4517,168 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[1, 2, 4, 5, 6, 8, 9, 11, 19, 25, 29, 32, 33, 35, 37, 41, 43]</t>
+          <t>[1, 3, 8, 14, 19, 20, 28, 32, 34, 35, 36, 37, 39, 40, 42, 43]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0.5757936507936507</t>
+          <t>0.3495238095238095</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.03421041514597741</t>
+          <t>0.04604872447951229</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.05269091112598172</t>
+          <t>0.13793704280962132</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.9588775619450829</t>
+          <t>0.6200657103451395</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.197361707687378</t>
+          <t>10.782031774520874</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 7, 10, 11, 12, 14, 23, 24, 29, 32, 35, 37, 39, 41, 42]</t>
+          <t>[3, 4, 5, 6, 10, 11, 12, 14, 15, 17, 20, 21, 25, 26, 29, 31, 32, 33, 34, 35, 36, 39, 41, 42]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0.49444444444444446</t>
+          <t>0.7461904761904762</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.04046637009873809</t>
+          <t>0.047267314622719825</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.05599083677004985</t>
+          <t>0.08827902916683977</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.9535654379116315</t>
+          <t>0.8443813061453616</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.2291042804718018</t>
+          <t>12.657891750335693</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 7, 9, 10, 11, 12, 14, 16, 18, 19, 21, 23, 33, 34, 35, 37]</t>
+          <t>[3, 4, 8, 9, 10, 11, 13, 14, 20, 21, 22, 26, 28, 31, 32, 33, 34, 35, 36, 37, 39, 42]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0.4736111111111111</t>
+          <t>0.9666666666666667</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.03879143655084071</t>
+          <t>0.04950409518674084</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.05810643702128091</t>
+          <t>0.1108065078684177</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.9499901064068478</t>
+          <t>0.7548244235485236</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2.185636281967163</t>
+          <t>10.85010838508606</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[3, 5, 6, 8, 12, 13, 15, 16, 17, 22, 23, 25, 26, 27, 29, 32, 33, 34, 37, 38, 39, 40, 44]</t>
+          <t>[0, 4, 5, 6, 8, 10, 12, 15, 18, 20, 22, 23, 28, 30, 31, 36, 39, 42, 43]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0.5041666666666667</t>
+          <t>0.4323809523809523</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.04013177202559341</t>
+          <t>0.049879464984528894</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.04582958845103925</t>
+          <t>0.10121833899438619</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.9688900471530282</t>
+          <t>0.7954191016267798</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2.206728219985962</t>
+          <t>12.211792945861816</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
